--- a/artfynd/A 55943-2022.xlsx
+++ b/artfynd/A 55943-2022.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>80634121</v>
+        <v>89380453</v>
       </c>
       <c r="B2" t="n">
         <v>98520</v>
@@ -720,13 +720,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>516472.1569378349</v>
+        <v>516317.2239140509</v>
       </c>
       <c r="R2" t="n">
-        <v>6369499.230836863</v>
+        <v>6369570.134383655</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2019-10-26</t>
+          <t>2020-09-04</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2019-10-26</t>
+          <t>2020-09-04</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -780,19 +780,23 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Johan Staaf</t>
+          <t>Anders Hildingsson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Johan Staaf</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr"/>
+          <t>Anders Hildingsson</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>Mykorrhizasvampar i kalkbarrskog och sandbarrskog 2020</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>80634124</v>
+        <v>80634121</v>
       </c>
       <c r="B3" t="n">
         <v>98520</v>
@@ -832,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>516386.1356925626</v>
+        <v>516472.1569378349</v>
       </c>
       <c r="R3" t="n">
-        <v>6369584.931115973</v>
+        <v>6369499.230836863</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,7 +908,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>89380453</v>
+        <v>80634124</v>
       </c>
       <c r="B4" t="n">
         <v>98520</v>
@@ -944,13 +948,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>516317.2239140509</v>
+        <v>516386.1356925626</v>
       </c>
       <c r="R4" t="n">
-        <v>6369570.134383655</v>
+        <v>6369584.931115973</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -974,7 +978,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2020-09-04</t>
+          <t>2019-10-26</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -984,7 +988,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2020-09-04</t>
+          <t>2019-10-26</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1004,19 +1008,15 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Anders Hildingsson</t>
+          <t>Johan Staaf</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Anders Hildingsson</t>
-        </is>
-      </c>
-      <c r="AY4" t="inlineStr">
-        <is>
-          <t>Mykorrhizasvampar i kalkbarrskog och sandbarrskog 2020</t>
-        </is>
-      </c>
+          <t>Johan Staaf</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">

--- a/artfynd/A 55943-2022.xlsx
+++ b/artfynd/A 55943-2022.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>89380453</v>
+        <v>80634121</v>
       </c>
       <c r="B2" t="n">
         <v>98520</v>
@@ -720,13 +720,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>516317.2239140509</v>
+        <v>516472.1569378349</v>
       </c>
       <c r="R2" t="n">
-        <v>6369570.134383655</v>
+        <v>6369499.230836863</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2020-09-04</t>
+          <t>2019-10-26</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2020-09-04</t>
+          <t>2019-10-26</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -780,23 +780,19 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Anders Hildingsson</t>
+          <t>Johan Staaf</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Anders Hildingsson</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr">
-        <is>
-          <t>Mykorrhizasvampar i kalkbarrskog och sandbarrskog 2020</t>
-        </is>
-      </c>
+          <t>Johan Staaf</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>80634121</v>
+        <v>80634124</v>
       </c>
       <c r="B3" t="n">
         <v>98520</v>
@@ -836,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>516472.1569378349</v>
+        <v>516386.1356925626</v>
       </c>
       <c r="R3" t="n">
-        <v>6369499.230836863</v>
+        <v>6369584.931115973</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -908,7 +904,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>80634124</v>
+        <v>89380453</v>
       </c>
       <c r="B4" t="n">
         <v>98520</v>
@@ -948,13 +944,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>516386.1356925626</v>
+        <v>516317.2239140509</v>
       </c>
       <c r="R4" t="n">
-        <v>6369584.931115973</v>
+        <v>6369570.134383655</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -978,7 +974,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2019-10-26</t>
+          <t>2020-09-04</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -988,7 +984,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2019-10-26</t>
+          <t>2020-09-04</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1008,15 +1004,19 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Johan Staaf</t>
+          <t>Anders Hildingsson</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Johan Staaf</t>
-        </is>
-      </c>
-      <c r="AY4" t="inlineStr"/>
+          <t>Anders Hildingsson</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>Mykorrhizasvampar i kalkbarrskog och sandbarrskog 2020</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
